--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/e2e/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/e2e/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-09-27 04:21:53</t>
@@ -258,8 +258,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,7 +330,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -467,7 +467,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
